--- a/Financials/Yearly/SAP_YR_FIN.xlsx
+++ b/Financials/Yearly/SAP_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F541B17C-4BBE-402F-B6E5-6B1A5FEB6E8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAP" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>SAP</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>27538800</v>
+        <v>27722100</v>
       </c>
       <c r="E8" s="3">
-        <v>25896600</v>
+        <v>26323000</v>
       </c>
       <c r="F8" s="3">
-        <v>24407000</v>
+        <v>24753300</v>
       </c>
       <c r="G8" s="3">
-        <v>20612100</v>
+        <v>23329500</v>
       </c>
       <c r="H8" s="3">
-        <v>19737600</v>
+        <v>19702100</v>
       </c>
       <c r="I8" s="3">
-        <v>19042700</v>
+        <v>18866300</v>
       </c>
       <c r="J8" s="3">
+        <v>18202000</v>
+      </c>
+      <c r="K8" s="3">
         <v>16706800</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7906800</v>
+        <v>8066000</v>
       </c>
       <c r="E9" s="3">
-        <v>7249500</v>
+        <v>7557700</v>
       </c>
       <c r="F9" s="3">
-        <v>14527100</v>
+        <v>14316600</v>
       </c>
       <c r="G9" s="3">
-        <v>6188300</v>
+        <v>13885700</v>
       </c>
       <c r="H9" s="3">
-        <v>8953800</v>
+        <v>5915100</v>
       </c>
       <c r="I9" s="3">
-        <v>8953800</v>
+        <v>8558500</v>
       </c>
       <c r="J9" s="3">
+        <v>8558500</v>
+      </c>
+      <c r="K9" s="3">
         <v>5110800</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19632000</v>
+        <v>19656100</v>
       </c>
       <c r="E10" s="3">
-        <v>18647100</v>
+        <v>18765300</v>
       </c>
       <c r="F10" s="3">
-        <v>9880000</v>
+        <v>10436800</v>
       </c>
       <c r="G10" s="3">
-        <v>14423800</v>
+        <v>9443800</v>
       </c>
       <c r="H10" s="3">
-        <v>10783800</v>
+        <v>13787000</v>
       </c>
       <c r="I10" s="3">
-        <v>10088900</v>
+        <v>10307700</v>
       </c>
       <c r="J10" s="3">
+        <v>9643500</v>
+      </c>
+      <c r="K10" s="3">
         <v>11596100</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,35 +846,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>3921700</v>
+        <v>4056000</v>
       </c>
       <c r="E12" s="3">
-        <v>3561300</v>
+        <v>3748600</v>
       </c>
       <c r="F12" s="3">
-        <v>6636700</v>
+        <v>6819500</v>
       </c>
       <c r="G12" s="3">
-        <v>2736200</v>
+        <v>6343700</v>
       </c>
       <c r="H12" s="3">
-        <v>5357300</v>
+        <v>2615400</v>
       </c>
       <c r="I12" s="3">
-        <v>5308000</v>
+        <v>5120800</v>
       </c>
       <c r="J12" s="3">
+        <v>5073600</v>
+      </c>
+      <c r="K12" s="3">
         <v>2271300</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,36 +903,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>902700</v>
+        <v>658600</v>
       </c>
       <c r="E14" s="3">
-        <v>831100</v>
+        <v>862800</v>
       </c>
       <c r="F14" s="3">
-        <v>1594000</v>
+        <v>794400</v>
       </c>
       <c r="G14" s="3">
-        <v>510600</v>
+        <v>1523700</v>
       </c>
       <c r="H14" s="3">
-        <v>58700</v>
+        <v>488100</v>
       </c>
       <c r="I14" s="3">
-        <v>21100</v>
+        <v>56100</v>
       </c>
       <c r="J14" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K14" s="3">
         <v>-844200</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -906,9 +963,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>21814100</v>
+        <v>21323400</v>
       </c>
       <c r="E17" s="3">
-        <v>19869100</v>
+        <v>20851100</v>
       </c>
       <c r="F17" s="3">
-        <v>19416000</v>
+        <v>18991900</v>
       </c>
       <c r="G17" s="3">
-        <v>15528300</v>
+        <v>18558800</v>
       </c>
       <c r="H17" s="3">
-        <v>14480100</v>
+        <v>14842800</v>
       </c>
       <c r="I17" s="3">
-        <v>14299400</v>
+        <v>13840900</v>
       </c>
       <c r="J17" s="3">
+        <v>13668100</v>
+      </c>
+      <c r="K17" s="3">
         <v>10966900</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>5724700</v>
+        <v>6398700</v>
       </c>
       <c r="E18" s="3">
-        <v>6027500</v>
+        <v>5471900</v>
       </c>
       <c r="F18" s="3">
-        <v>4991000</v>
+        <v>5761400</v>
       </c>
       <c r="G18" s="3">
-        <v>5083800</v>
+        <v>4770700</v>
       </c>
       <c r="H18" s="3">
-        <v>5257500</v>
+        <v>4859300</v>
       </c>
       <c r="I18" s="3">
-        <v>4743400</v>
+        <v>5025400</v>
       </c>
       <c r="J18" s="3">
+        <v>4534000</v>
+      </c>
+      <c r="K18" s="3">
         <v>5739900</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -984,143 +1051,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>279400</v>
+        <v>3400</v>
       </c>
       <c r="E20" s="3">
-        <v>-192500</v>
+        <v>270400</v>
       </c>
       <c r="F20" s="3">
-        <v>-147900</v>
+        <v>-173900</v>
       </c>
       <c r="G20" s="3">
-        <v>137300</v>
+        <v>-141400</v>
       </c>
       <c r="H20" s="3">
-        <v>208900</v>
+        <v>131300</v>
       </c>
       <c r="I20" s="3">
-        <v>-135000</v>
+        <v>199700</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-129000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>7498100</v>
+        <v>7933900</v>
       </c>
       <c r="E21" s="3">
-        <v>7324400</v>
+        <v>7173000</v>
       </c>
       <c r="F21" s="3">
-        <v>6357200</v>
+        <v>7013600</v>
       </c>
       <c r="G21" s="3">
-        <v>6407500</v>
+        <v>6079100</v>
       </c>
       <c r="H21" s="3">
-        <v>6583500</v>
+        <v>6126500</v>
       </c>
       <c r="I21" s="3">
-        <v>5622100</v>
+        <v>6294700</v>
       </c>
       <c r="J21" s="3">
+        <v>5375500</v>
+      </c>
+      <c r="K21" s="3">
         <v>6590300</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>104500</v>
+        <v>118900</v>
       </c>
       <c r="E22" s="3">
-        <v>126800</v>
+        <v>99900</v>
       </c>
       <c r="F22" s="3">
-        <v>158500</v>
+        <v>121200</v>
       </c>
       <c r="G22" s="3">
-        <v>109200</v>
+        <v>151500</v>
       </c>
       <c r="H22" s="3">
-        <v>306400</v>
+        <v>104300</v>
       </c>
       <c r="I22" s="3">
-        <v>152600</v>
+        <v>292800</v>
       </c>
       <c r="J22" s="3">
+        <v>145900</v>
+      </c>
+      <c r="K22" s="3">
         <v>144400</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>5899600</v>
+        <v>6283100</v>
       </c>
       <c r="E23" s="3">
-        <v>5708200</v>
+        <v>5642500</v>
       </c>
       <c r="F23" s="3">
-        <v>4684700</v>
+        <v>5466300</v>
       </c>
       <c r="G23" s="3">
-        <v>5111900</v>
+        <v>4477900</v>
       </c>
       <c r="H23" s="3">
-        <v>5160100</v>
+        <v>4886300</v>
       </c>
       <c r="I23" s="3">
-        <v>4455800</v>
+        <v>4932300</v>
       </c>
       <c r="J23" s="3">
+        <v>4259100</v>
+      </c>
+      <c r="K23" s="3">
         <v>5595600</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1405100</v>
+        <v>1695300</v>
       </c>
       <c r="E24" s="3">
-        <v>1442600</v>
+        <v>1102900</v>
       </c>
       <c r="F24" s="3">
-        <v>1097500</v>
+        <v>1393500</v>
       </c>
       <c r="G24" s="3">
-        <v>1261800</v>
+        <v>1049100</v>
       </c>
       <c r="H24" s="3">
-        <v>1257200</v>
+        <v>1206100</v>
       </c>
       <c r="I24" s="3">
-        <v>1165600</v>
+        <v>1201700</v>
       </c>
       <c r="J24" s="3">
+        <v>1114100</v>
+      </c>
+      <c r="K24" s="3">
         <v>1562300</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>4494500</v>
+        <v>4587800</v>
       </c>
       <c r="E26" s="3">
-        <v>4265600</v>
+        <v>4539600</v>
       </c>
       <c r="F26" s="3">
-        <v>3587200</v>
+        <v>4072800</v>
       </c>
       <c r="G26" s="3">
-        <v>3850100</v>
+        <v>3428800</v>
       </c>
       <c r="H26" s="3">
-        <v>3902900</v>
+        <v>3680100</v>
       </c>
       <c r="I26" s="3">
-        <v>3290200</v>
+        <v>3730600</v>
       </c>
       <c r="J26" s="3">
+        <v>3144900</v>
+      </c>
+      <c r="K26" s="3">
         <v>4033200</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>4449900</v>
+        <v>4581100</v>
       </c>
       <c r="E27" s="3">
-        <v>4279700</v>
+        <v>4496900</v>
       </c>
       <c r="F27" s="3">
-        <v>3596600</v>
+        <v>4086300</v>
       </c>
       <c r="G27" s="3">
-        <v>3850100</v>
+        <v>3437800</v>
       </c>
       <c r="H27" s="3">
-        <v>3902900</v>
+        <v>3680100</v>
       </c>
       <c r="I27" s="3">
-        <v>3290200</v>
+        <v>3730600</v>
       </c>
       <c r="J27" s="3">
+        <v>3144900</v>
+      </c>
+      <c r="K27" s="3">
         <v>4032000</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1226,17 +1318,20 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>266500</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="E29" s="3">
+        <v>254700</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -1253,9 +1348,12 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-279400</v>
+        <v>-3400</v>
       </c>
       <c r="E32" s="3">
-        <v>192500</v>
+        <v>-270400</v>
       </c>
       <c r="F32" s="3">
-        <v>147900</v>
+        <v>173900</v>
       </c>
       <c r="G32" s="3">
-        <v>-137300</v>
+        <v>141400</v>
       </c>
       <c r="H32" s="3">
-        <v>-208900</v>
+        <v>-131300</v>
       </c>
       <c r="I32" s="3">
-        <v>135000</v>
+        <v>-199700</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+        <v>129000</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4716400</v>
+        <v>4581100</v>
       </c>
       <c r="E33" s="3">
-        <v>4279700</v>
+        <v>4751600</v>
       </c>
       <c r="F33" s="3">
-        <v>3596600</v>
+        <v>4086300</v>
       </c>
       <c r="G33" s="3">
-        <v>3850100</v>
+        <v>3437800</v>
       </c>
       <c r="H33" s="3">
-        <v>3902900</v>
+        <v>3680100</v>
       </c>
       <c r="I33" s="3">
-        <v>3290200</v>
+        <v>3730600</v>
       </c>
       <c r="J33" s="3">
+        <v>3144900</v>
+      </c>
+      <c r="K33" s="3">
         <v>4032000</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4716400</v>
+        <v>4581100</v>
       </c>
       <c r="E35" s="3">
-        <v>4279700</v>
+        <v>4751600</v>
       </c>
       <c r="F35" s="3">
-        <v>3596600</v>
+        <v>4086300</v>
       </c>
       <c r="G35" s="3">
-        <v>3850100</v>
+        <v>3437800</v>
       </c>
       <c r="H35" s="3">
-        <v>3902900</v>
+        <v>3680100</v>
       </c>
       <c r="I35" s="3">
-        <v>3290200</v>
+        <v>3730600</v>
       </c>
       <c r="J35" s="3">
+        <v>3144900</v>
+      </c>
+      <c r="K35" s="3">
         <v>4032000</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,89 +1594,99 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4708200</v>
+        <v>3274000</v>
       </c>
       <c r="E41" s="3">
-        <v>4345400</v>
+        <v>7370400</v>
       </c>
       <c r="F41" s="3">
-        <v>4003900</v>
+        <v>4153600</v>
       </c>
       <c r="G41" s="3">
-        <v>3906400</v>
+        <v>3827100</v>
       </c>
       <c r="H41" s="3">
-        <v>3225600</v>
+        <v>3734000</v>
       </c>
       <c r="I41" s="3">
-        <v>2907500</v>
+        <v>3083200</v>
       </c>
       <c r="J41" s="3">
+        <v>2779200</v>
+      </c>
+      <c r="K41" s="3">
         <v>5828000</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1207900</v>
+        <v>6771200</v>
       </c>
       <c r="E42" s="3">
-        <v>230100</v>
+        <v>3729500</v>
       </c>
       <c r="F42" s="3">
-        <v>31700</v>
+        <v>219900</v>
       </c>
       <c r="G42" s="3">
-        <v>892100</v>
+        <v>30300</v>
       </c>
       <c r="H42" s="3">
-        <v>44600</v>
+        <v>852700</v>
       </c>
       <c r="I42" s="3">
-        <v>76300</v>
+        <v>42600</v>
       </c>
       <c r="J42" s="3">
+        <v>72900</v>
+      </c>
+      <c r="K42" s="3">
         <v>785300</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8459600</v>
+        <v>7718200</v>
       </c>
       <c r="E43" s="3">
-        <v>8350500</v>
+        <v>20397800</v>
       </c>
       <c r="F43" s="3">
-        <v>6831600</v>
+        <v>7981800</v>
       </c>
       <c r="G43" s="3">
-        <v>5820900</v>
+        <v>6527700</v>
       </c>
       <c r="H43" s="3">
-        <v>4899500</v>
+        <v>5563900</v>
       </c>
       <c r="I43" s="3">
-        <v>4825500</v>
+        <v>4683200</v>
       </c>
       <c r="J43" s="3">
+        <v>4612500</v>
+      </c>
+      <c r="K43" s="3">
         <v>4100100</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1575,150 +1705,168 @@
       <c r="H44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I44" s="3">
-        <v>69300</v>
+      <c r="I44" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J44" s="3">
+        <v>66200</v>
+      </c>
+      <c r="K44" s="3">
         <v>12900</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1641000</v>
+        <v>884100</v>
       </c>
       <c r="E45" s="3">
-        <v>647900</v>
+        <v>1776100</v>
       </c>
       <c r="F45" s="3">
-        <v>564600</v>
+        <v>619300</v>
       </c>
       <c r="G45" s="3">
-        <v>2135200</v>
+        <v>541900</v>
       </c>
       <c r="H45" s="3">
-        <v>466000</v>
+        <v>2040900</v>
       </c>
       <c r="I45" s="3">
-        <v>591600</v>
+        <v>445400</v>
       </c>
       <c r="J45" s="3">
+        <v>565500</v>
+      </c>
+      <c r="K45" s="3">
         <v>623300</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14003600</v>
+        <v>18647500</v>
       </c>
       <c r="E46" s="3">
-        <v>13573900</v>
+        <v>13385300</v>
       </c>
       <c r="F46" s="3">
-        <v>11431700</v>
+        <v>12974700</v>
       </c>
       <c r="G46" s="3">
-        <v>10563100</v>
+        <v>10927100</v>
       </c>
       <c r="H46" s="3">
-        <v>8628700</v>
+        <v>10096800</v>
       </c>
       <c r="I46" s="3">
-        <v>8132200</v>
+        <v>8247700</v>
       </c>
       <c r="J46" s="3">
+        <v>7773100</v>
+      </c>
+      <c r="K46" s="3">
         <v>11349600</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3466300</v>
+        <v>2411200</v>
       </c>
       <c r="E47" s="3">
-        <v>2150400</v>
+        <v>3617300</v>
       </c>
       <c r="F47" s="3">
-        <v>1820600</v>
+        <v>2055500</v>
       </c>
       <c r="G47" s="3">
-        <v>3068300</v>
+        <v>1740200</v>
       </c>
       <c r="H47" s="3">
-        <v>1683200</v>
+        <v>2932900</v>
       </c>
       <c r="I47" s="3">
-        <v>1695000</v>
+        <v>1608900</v>
       </c>
       <c r="J47" s="3">
+        <v>1620200</v>
+      </c>
+      <c r="K47" s="3">
         <v>909700</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6965400</v>
+        <v>3986400</v>
       </c>
       <c r="E48" s="3">
-        <v>3028400</v>
+        <v>6657900</v>
       </c>
       <c r="F48" s="3">
-        <v>2573000</v>
+        <v>2894700</v>
       </c>
       <c r="G48" s="3">
-        <v>4934700</v>
+        <v>2459400</v>
       </c>
       <c r="H48" s="3">
-        <v>4272700</v>
+        <v>4716800</v>
       </c>
       <c r="I48" s="3">
-        <v>356800</v>
+        <v>4084000</v>
       </c>
       <c r="J48" s="3">
+        <v>341100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1820600</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>56900400</v>
+        <v>30239900</v>
       </c>
       <c r="E49" s="3">
-        <v>31806700</v>
+        <v>54385100</v>
       </c>
       <c r="F49" s="3">
-        <v>31656500</v>
+        <v>30402600</v>
       </c>
       <c r="G49" s="3">
-        <v>84773700</v>
+        <v>30258900</v>
       </c>
       <c r="H49" s="3">
-        <v>19536900</v>
+        <v>81031200</v>
       </c>
       <c r="I49" s="3">
-        <v>32360800</v>
+        <v>18674400</v>
       </c>
       <c r="J49" s="3">
+        <v>30932100</v>
+      </c>
+      <c r="K49" s="3">
         <v>12600900</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2718500</v>
+        <v>2487500</v>
       </c>
       <c r="E52" s="3">
-        <v>1413300</v>
+        <v>3156200</v>
       </c>
       <c r="F52" s="3">
-        <v>1102200</v>
+        <v>1350900</v>
       </c>
       <c r="G52" s="3">
-        <v>780600</v>
+        <v>1053500</v>
       </c>
       <c r="H52" s="3">
-        <v>483600</v>
+        <v>746100</v>
       </c>
       <c r="I52" s="3">
-        <v>686700</v>
+        <v>462300</v>
       </c>
       <c r="J52" s="3">
+        <v>656400</v>
+      </c>
+      <c r="K52" s="3">
         <v>583400</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>49894000</v>
+        <v>57772400</v>
       </c>
       <c r="E54" s="3">
-        <v>51972800</v>
+        <v>47666600</v>
       </c>
       <c r="F54" s="3">
-        <v>48584000</v>
+        <v>49678400</v>
       </c>
       <c r="G54" s="3">
-        <v>45268000</v>
+        <v>46439200</v>
       </c>
       <c r="H54" s="3">
-        <v>31799700</v>
+        <v>43269500</v>
       </c>
       <c r="I54" s="3">
-        <v>30878200</v>
+        <v>30395800</v>
       </c>
       <c r="J54" s="3">
+        <v>29515100</v>
+      </c>
+      <c r="K54" s="3">
         <v>27264100</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2042,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2468500</v>
+        <v>1667300</v>
       </c>
       <c r="E57" s="3">
-        <v>1192600</v>
+        <v>2359500</v>
       </c>
       <c r="F57" s="3">
-        <v>1048200</v>
+        <v>1139900</v>
       </c>
       <c r="G57" s="3">
-        <v>2132800</v>
+        <v>1001900</v>
       </c>
       <c r="H57" s="3">
-        <v>1502500</v>
+        <v>2038700</v>
       </c>
       <c r="I57" s="3">
-        <v>1605800</v>
+        <v>1436100</v>
       </c>
       <c r="J57" s="3">
+        <v>1534900</v>
+      </c>
+      <c r="K57" s="3">
         <v>853400</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1523600</v>
+        <v>861700</v>
       </c>
       <c r="E58" s="3">
+        <v>3207800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1604400</v>
+      </c>
+      <c r="G58" s="3">
+        <v>636200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>2874500</v>
+      </c>
+      <c r="I58" s="3">
         <v>1678500</v>
       </c>
-      <c r="F58" s="3">
-        <v>665600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>3007300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1756000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1882800</v>
-      </c>
       <c r="J58" s="3">
+        <v>1799700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1562300</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15807700</v>
+        <v>9230600</v>
       </c>
       <c r="E59" s="3">
-        <v>8484300</v>
+        <v>16759200</v>
       </c>
       <c r="F59" s="3">
-        <v>7520600</v>
+        <v>8109700</v>
       </c>
       <c r="G59" s="3">
-        <v>12695900</v>
+        <v>7188600</v>
       </c>
       <c r="H59" s="3">
-        <v>6082700</v>
+        <v>12135400</v>
       </c>
       <c r="I59" s="3">
-        <v>9046600</v>
+        <v>5814200</v>
       </c>
       <c r="J59" s="3">
+        <v>8647200</v>
+      </c>
+      <c r="K59" s="3">
         <v>4939400</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11984600</v>
+        <v>11759600</v>
       </c>
       <c r="E60" s="3">
-        <v>11355400</v>
+        <v>11455500</v>
       </c>
       <c r="F60" s="3">
-        <v>9234400</v>
+        <v>10854100</v>
       </c>
       <c r="G60" s="3">
-        <v>10064200</v>
+        <v>8826700</v>
       </c>
       <c r="H60" s="3">
-        <v>7450200</v>
+        <v>9619900</v>
       </c>
       <c r="I60" s="3">
-        <v>7683800</v>
+        <v>7121300</v>
       </c>
       <c r="J60" s="3">
+        <v>7344500</v>
+      </c>
+      <c r="K60" s="3">
         <v>7355100</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5871400</v>
+        <v>11820200</v>
       </c>
       <c r="E61" s="3">
-        <v>7569900</v>
+        <v>5612200</v>
       </c>
       <c r="F61" s="3">
-        <v>10128800</v>
+        <v>7235700</v>
       </c>
       <c r="G61" s="3">
-        <v>10483300</v>
+        <v>9681700</v>
       </c>
       <c r="H61" s="3">
-        <v>4411200</v>
+        <v>10020500</v>
       </c>
       <c r="I61" s="3">
-        <v>5218800</v>
+        <v>4216400</v>
       </c>
       <c r="J61" s="3">
+        <v>4988400</v>
+      </c>
+      <c r="K61" s="3">
         <v>1873400</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8462000</v>
+        <v>1792900</v>
       </c>
       <c r="E62" s="3">
-        <v>2062400</v>
+        <v>2754500</v>
       </c>
       <c r="F62" s="3">
-        <v>1876900</v>
+        <v>1971300</v>
       </c>
       <c r="G62" s="3">
-        <v>2959200</v>
+        <v>1794100</v>
       </c>
       <c r="H62" s="3">
-        <v>1153900</v>
+        <v>2828500</v>
       </c>
       <c r="I62" s="3">
-        <v>3919400</v>
+        <v>1102900</v>
       </c>
       <c r="J62" s="3">
+        <v>3746300</v>
+      </c>
+      <c r="K62" s="3">
         <v>3120000</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19951200</v>
+        <v>25423200</v>
       </c>
       <c r="E66" s="3">
-        <v>21012400</v>
+        <v>19073800</v>
       </c>
       <c r="F66" s="3">
-        <v>21273000</v>
+        <v>20084700</v>
       </c>
       <c r="G66" s="3">
-        <v>22378700</v>
+        <v>20333800</v>
       </c>
       <c r="H66" s="3">
-        <v>12971800</v>
+        <v>21390700</v>
       </c>
       <c r="I66" s="3">
-        <v>14298200</v>
+        <v>12399100</v>
       </c>
       <c r="J66" s="3">
+        <v>13667000</v>
+      </c>
+      <c r="K66" s="3">
         <v>12357900</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2413,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2443,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>29699700</v>
+        <v>30750400</v>
       </c>
       <c r="E72" s="3">
-        <v>26178300</v>
+        <v>28360500</v>
       </c>
       <c r="F72" s="3">
-        <v>23527800</v>
+        <v>25022600</v>
       </c>
       <c r="G72" s="3">
-        <v>21500700</v>
+        <v>22489200</v>
       </c>
       <c r="H72" s="3">
-        <v>19083800</v>
+        <v>20551500</v>
       </c>
       <c r="I72" s="3">
-        <v>16355900</v>
+        <v>18241300</v>
       </c>
       <c r="J72" s="3">
+        <v>15633800</v>
+      </c>
+      <c r="K72" s="3">
         <v>14632700</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29942700</v>
+        <v>32349200</v>
       </c>
       <c r="E76" s="3">
-        <v>30960400</v>
+        <v>28592800</v>
       </c>
       <c r="F76" s="3">
-        <v>27311000</v>
+        <v>29593600</v>
       </c>
       <c r="G76" s="3">
-        <v>22889300</v>
+        <v>26105300</v>
       </c>
       <c r="H76" s="3">
-        <v>18827900</v>
+        <v>21878800</v>
       </c>
       <c r="I76" s="3">
-        <v>16580100</v>
+        <v>17996700</v>
       </c>
       <c r="J76" s="3">
+        <v>15848100</v>
+      </c>
+      <c r="K76" s="3">
         <v>14906200</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4716400</v>
+        <v>4581100</v>
       </c>
       <c r="E81" s="3">
-        <v>4279700</v>
+        <v>4751600</v>
       </c>
       <c r="F81" s="3">
-        <v>3596600</v>
+        <v>4086300</v>
       </c>
       <c r="G81" s="3">
-        <v>3850100</v>
+        <v>3437800</v>
       </c>
       <c r="H81" s="3">
-        <v>3902900</v>
+        <v>3680100</v>
       </c>
       <c r="I81" s="3">
-        <v>3290200</v>
+        <v>3730600</v>
       </c>
       <c r="J81" s="3">
+        <v>3144900</v>
+      </c>
+      <c r="K81" s="3">
         <v>4032000</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1493100</v>
+        <v>1528200</v>
       </c>
       <c r="E83" s="3">
-        <v>1488400</v>
+        <v>1427200</v>
       </c>
       <c r="F83" s="3">
-        <v>1513000</v>
+        <v>1422700</v>
       </c>
       <c r="G83" s="3">
-        <v>1185500</v>
+        <v>1446200</v>
       </c>
       <c r="H83" s="3">
-        <v>1116300</v>
+        <v>1133200</v>
       </c>
       <c r="I83" s="3">
-        <v>1013000</v>
+        <v>1067000</v>
       </c>
       <c r="J83" s="3">
+        <v>968300</v>
+      </c>
+      <c r="K83" s="3">
         <v>849800</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5921900</v>
+        <v>4827900</v>
       </c>
       <c r="E89" s="3">
-        <v>5432400</v>
+        <v>5660400</v>
       </c>
       <c r="F89" s="3">
-        <v>4270300</v>
+        <v>5192600</v>
       </c>
       <c r="G89" s="3">
-        <v>4107200</v>
+        <v>4081800</v>
       </c>
       <c r="H89" s="3">
-        <v>4498000</v>
+        <v>3925800</v>
       </c>
       <c r="I89" s="3">
-        <v>4486300</v>
+        <v>4299500</v>
       </c>
       <c r="J89" s="3">
+        <v>4288200</v>
+      </c>
+      <c r="K89" s="3">
         <v>4431100</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1496600</v>
+        <v>-1635900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1175000</v>
+        <v>-1430500</v>
       </c>
       <c r="F91" s="3">
-        <v>-746500</v>
+        <v>-1123100</v>
       </c>
       <c r="G91" s="3">
-        <v>-865100</v>
+        <v>-713600</v>
       </c>
       <c r="H91" s="3">
-        <v>-664400</v>
+        <v>-826900</v>
       </c>
       <c r="I91" s="3">
         <v>-635000</v>
       </c>
       <c r="J91" s="3">
+        <v>-607000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-522300</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1305300</v>
+        <v>-3440000</v>
       </c>
       <c r="E94" s="3">
-        <v>-2111700</v>
+        <v>-1247700</v>
       </c>
       <c r="F94" s="3">
-        <v>-392100</v>
+        <v>-2018500</v>
       </c>
       <c r="G94" s="3">
-        <v>-8498400</v>
+        <v>-374700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2090600</v>
+        <v>-8123200</v>
       </c>
       <c r="I94" s="3">
-        <v>-7000600</v>
+        <v>-1998300</v>
       </c>
       <c r="J94" s="3">
+        <v>-6691500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1439100</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3093,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1759500</v>
+        <v>-1874800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1617500</v>
+        <v>-1681900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1544700</v>
+        <v>-1546100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1401500</v>
+        <v>-1476500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1189100</v>
+        <v>-1339700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1537700</v>
+        <v>-1136600</v>
       </c>
       <c r="J96" s="3">
+        <v>-1469800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-836900</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3210,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3998000</v>
+        <v>3683500</v>
       </c>
       <c r="E100" s="3">
-        <v>-3175200</v>
+        <v>-3821500</v>
       </c>
       <c r="F100" s="3">
-        <v>-3939300</v>
+        <v>-3035000</v>
       </c>
       <c r="G100" s="3">
-        <v>5045000</v>
+        <v>-3765400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1865200</v>
+        <v>4822300</v>
       </c>
       <c r="I100" s="3">
-        <v>-227700</v>
+        <v>-1782800</v>
       </c>
       <c r="J100" s="3">
+        <v>-217700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1380400</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-255900</v>
+        <v>108800</v>
       </c>
       <c r="E101" s="3">
-        <v>196000</v>
+        <v>-244600</v>
       </c>
       <c r="F101" s="3">
-        <v>158500</v>
+        <v>187400</v>
       </c>
       <c r="G101" s="3">
-        <v>27000</v>
+        <v>151500</v>
       </c>
       <c r="H101" s="3">
-        <v>-224200</v>
+        <v>25800</v>
       </c>
       <c r="I101" s="3">
-        <v>-178400</v>
+        <v>-214300</v>
       </c>
       <c r="J101" s="3">
+        <v>-170500</v>
+      </c>
+      <c r="K101" s="3">
         <v>86900</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>362700</v>
+        <v>5180200</v>
       </c>
       <c r="E102" s="3">
-        <v>341600</v>
+        <v>346700</v>
       </c>
       <c r="F102" s="3">
-        <v>97400</v>
+        <v>326500</v>
       </c>
       <c r="G102" s="3">
-        <v>680800</v>
+        <v>93100</v>
       </c>
       <c r="H102" s="3">
-        <v>318100</v>
+        <v>650800</v>
       </c>
       <c r="I102" s="3">
-        <v>-2920400</v>
+        <v>304100</v>
       </c>
       <c r="J102" s="3">
+        <v>-2791500</v>
+      </c>
+      <c r="K102" s="3">
         <v>1698500</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/SAP_YR_FIN.xlsx
+++ b/Financials/Yearly/SAP_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F541B17C-4BBE-402F-B6E5-6B1A5FEB6E8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="SAP" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>SAP</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,97 +709,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>27722100</v>
+        <v>27129400</v>
       </c>
       <c r="E8" s="3">
-        <v>26323000</v>
+        <v>25760200</v>
       </c>
       <c r="F8" s="3">
-        <v>24753300</v>
+        <v>24224100</v>
       </c>
       <c r="G8" s="3">
-        <v>23329500</v>
+        <v>22830700</v>
       </c>
       <c r="H8" s="3">
-        <v>19702100</v>
+        <v>19280900</v>
       </c>
       <c r="I8" s="3">
-        <v>18866300</v>
+        <v>18462900</v>
       </c>
       <c r="J8" s="3">
-        <v>18202000</v>
+        <v>17812900</v>
       </c>
       <c r="K8" s="3">
         <v>16706800</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8066000</v>
+        <v>7893500</v>
       </c>
       <c r="E9" s="3">
-        <v>7557700</v>
+        <v>7396100</v>
       </c>
       <c r="F9" s="3">
-        <v>14316600</v>
+        <v>14010500</v>
       </c>
       <c r="G9" s="3">
-        <v>13885700</v>
+        <v>13588800</v>
       </c>
       <c r="H9" s="3">
-        <v>5915100</v>
+        <v>5788700</v>
       </c>
       <c r="I9" s="3">
-        <v>8558500</v>
+        <v>8375500</v>
       </c>
       <c r="J9" s="3">
-        <v>8558500</v>
+        <v>8375500</v>
       </c>
       <c r="K9" s="3">
         <v>5110800</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19656100</v>
+        <v>19235900</v>
       </c>
       <c r="E10" s="3">
-        <v>18765300</v>
+        <v>18364100</v>
       </c>
       <c r="F10" s="3">
-        <v>10436800</v>
+        <v>10213600</v>
       </c>
       <c r="G10" s="3">
-        <v>9443800</v>
+        <v>9241900</v>
       </c>
       <c r="H10" s="3">
-        <v>13787000</v>
+        <v>13492200</v>
       </c>
       <c r="I10" s="3">
-        <v>10307700</v>
+        <v>10087300</v>
       </c>
       <c r="J10" s="3">
-        <v>9643500</v>
+        <v>9437300</v>
       </c>
       <c r="K10" s="3">
         <v>11596100</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,37 +813,37 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4056000</v>
+        <v>3969300</v>
       </c>
       <c r="E12" s="3">
-        <v>3748600</v>
+        <v>3668400</v>
       </c>
       <c r="F12" s="3">
-        <v>6819500</v>
+        <v>6673600</v>
       </c>
       <c r="G12" s="3">
-        <v>6343700</v>
+        <v>6208100</v>
       </c>
       <c r="H12" s="3">
-        <v>2615400</v>
+        <v>2559400</v>
       </c>
       <c r="I12" s="3">
-        <v>5120800</v>
+        <v>5011300</v>
       </c>
       <c r="J12" s="3">
-        <v>5073600</v>
+        <v>4965200</v>
       </c>
       <c r="K12" s="3">
         <v>2271300</v>
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,37 +873,37 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>658600</v>
+        <v>644500</v>
       </c>
       <c r="E14" s="3">
-        <v>862800</v>
+        <v>844400</v>
       </c>
       <c r="F14" s="3">
-        <v>794400</v>
+        <v>777400</v>
       </c>
       <c r="G14" s="3">
-        <v>1523700</v>
+        <v>1491100</v>
       </c>
       <c r="H14" s="3">
-        <v>488100</v>
+        <v>477600</v>
       </c>
       <c r="I14" s="3">
-        <v>56100</v>
+        <v>54900</v>
       </c>
       <c r="J14" s="3">
-        <v>20200</v>
+        <v>19800</v>
       </c>
       <c r="K14" s="3">
         <v>-844200</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,7 +933,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -979,67 +944,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>21323400</v>
+        <v>20867500</v>
       </c>
       <c r="E17" s="3">
-        <v>20851100</v>
+        <v>20405200</v>
       </c>
       <c r="F17" s="3">
-        <v>18991900</v>
+        <v>18585800</v>
       </c>
       <c r="G17" s="3">
-        <v>18558800</v>
+        <v>18162000</v>
       </c>
       <c r="H17" s="3">
-        <v>14842800</v>
+        <v>14525400</v>
       </c>
       <c r="I17" s="3">
-        <v>13840900</v>
+        <v>13544900</v>
       </c>
       <c r="J17" s="3">
-        <v>13668100</v>
+        <v>13375800</v>
       </c>
       <c r="K17" s="3">
         <v>10966900</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>6398700</v>
+        <v>6261900</v>
       </c>
       <c r="E18" s="3">
-        <v>5471900</v>
+        <v>5354900</v>
       </c>
       <c r="F18" s="3">
-        <v>5761400</v>
+        <v>5638200</v>
       </c>
       <c r="G18" s="3">
-        <v>4770700</v>
+        <v>4668700</v>
       </c>
       <c r="H18" s="3">
-        <v>4859300</v>
+        <v>4755400</v>
       </c>
       <c r="I18" s="3">
-        <v>5025400</v>
+        <v>4917900</v>
       </c>
       <c r="J18" s="3">
-        <v>4534000</v>
+        <v>4437000</v>
       </c>
       <c r="K18" s="3">
         <v>5739900</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1053,157 +1018,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E20" s="3">
-        <v>270400</v>
+        <v>264600</v>
       </c>
       <c r="F20" s="3">
-        <v>-173900</v>
+        <v>-170200</v>
       </c>
       <c r="G20" s="3">
-        <v>-141400</v>
+        <v>-138300</v>
       </c>
       <c r="H20" s="3">
-        <v>131300</v>
+        <v>128500</v>
       </c>
       <c r="I20" s="3">
-        <v>199700</v>
+        <v>195400</v>
       </c>
       <c r="J20" s="3">
-        <v>-129000</v>
+        <v>-126300</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>7933900</v>
+        <v>7763000</v>
       </c>
       <c r="E21" s="3">
-        <v>7173000</v>
+        <v>7018400</v>
       </c>
       <c r="F21" s="3">
-        <v>7013600</v>
+        <v>6862500</v>
       </c>
       <c r="G21" s="3">
-        <v>6079100</v>
+        <v>5947900</v>
       </c>
       <c r="H21" s="3">
-        <v>6126500</v>
+        <v>5994600</v>
       </c>
       <c r="I21" s="3">
-        <v>6294700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>5375500</v>
+        <v>6159200</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K21" s="3">
         <v>6590300</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>118900</v>
+        <v>116400</v>
       </c>
       <c r="E22" s="3">
-        <v>99900</v>
+        <v>97700</v>
       </c>
       <c r="F22" s="3">
-        <v>121200</v>
+        <v>118600</v>
       </c>
       <c r="G22" s="3">
-        <v>151500</v>
+        <v>148200</v>
       </c>
       <c r="H22" s="3">
-        <v>104300</v>
+        <v>102100</v>
       </c>
       <c r="I22" s="3">
-        <v>292800</v>
+        <v>286600</v>
       </c>
       <c r="J22" s="3">
-        <v>145900</v>
+        <v>142700</v>
       </c>
       <c r="K22" s="3">
         <v>144400</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>6283100</v>
+        <v>6148800</v>
       </c>
       <c r="E23" s="3">
-        <v>5642500</v>
+        <v>5521800</v>
       </c>
       <c r="F23" s="3">
-        <v>5466300</v>
+        <v>5349500</v>
       </c>
       <c r="G23" s="3">
-        <v>4477900</v>
+        <v>4382100</v>
       </c>
       <c r="H23" s="3">
-        <v>4886300</v>
+        <v>4781800</v>
       </c>
       <c r="I23" s="3">
-        <v>4932300</v>
+        <v>4826800</v>
       </c>
       <c r="J23" s="3">
-        <v>4259100</v>
+        <v>4168000</v>
       </c>
       <c r="K23" s="3">
         <v>5595600</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1695300</v>
+        <v>1659100</v>
       </c>
       <c r="E24" s="3">
-        <v>1102900</v>
+        <v>1079300</v>
       </c>
       <c r="F24" s="3">
-        <v>1393500</v>
+        <v>1363700</v>
       </c>
       <c r="G24" s="3">
-        <v>1049100</v>
+        <v>1026600</v>
       </c>
       <c r="H24" s="3">
-        <v>1206100</v>
+        <v>1180400</v>
       </c>
       <c r="I24" s="3">
-        <v>1201700</v>
+        <v>1176000</v>
       </c>
       <c r="J24" s="3">
-        <v>1114100</v>
+        <v>1090300</v>
       </c>
       <c r="K24" s="3">
         <v>1562300</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1233,67 +1198,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>4587800</v>
+        <v>4489700</v>
       </c>
       <c r="E26" s="3">
-        <v>4539600</v>
+        <v>4442500</v>
       </c>
       <c r="F26" s="3">
-        <v>4072800</v>
+        <v>3985700</v>
       </c>
       <c r="G26" s="3">
-        <v>3428800</v>
+        <v>3355500</v>
       </c>
       <c r="H26" s="3">
-        <v>3680100</v>
+        <v>3601400</v>
       </c>
       <c r="I26" s="3">
-        <v>3730600</v>
+        <v>3650900</v>
       </c>
       <c r="J26" s="3">
-        <v>3144900</v>
+        <v>3077700</v>
       </c>
       <c r="K26" s="3">
         <v>4033200</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>4581100</v>
+        <v>4483100</v>
       </c>
       <c r="E27" s="3">
-        <v>4496900</v>
+        <v>4400800</v>
       </c>
       <c r="F27" s="3">
-        <v>4086300</v>
+        <v>3998900</v>
       </c>
       <c r="G27" s="3">
-        <v>3437800</v>
+        <v>3364300</v>
       </c>
       <c r="H27" s="3">
-        <v>3680100</v>
+        <v>3601400</v>
       </c>
       <c r="I27" s="3">
-        <v>3730600</v>
+        <v>3650900</v>
       </c>
       <c r="J27" s="3">
-        <v>3144900</v>
+        <v>3077700</v>
       </c>
       <c r="K27" s="3">
         <v>4032000</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1323,7 +1288,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,7 +1296,7 @@
         <v>24</v>
       </c>
       <c r="E29" s="3">
-        <v>254700</v>
+        <v>249200</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -1353,7 +1318,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1413,67 +1378,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="E32" s="3">
-        <v>-270400</v>
+        <v>-264600</v>
       </c>
       <c r="F32" s="3">
-        <v>173900</v>
+        <v>170200</v>
       </c>
       <c r="G32" s="3">
-        <v>141400</v>
+        <v>138300</v>
       </c>
       <c r="H32" s="3">
-        <v>-131300</v>
+        <v>-128500</v>
       </c>
       <c r="I32" s="3">
-        <v>-199700</v>
+        <v>-195400</v>
       </c>
       <c r="J32" s="3">
-        <v>129000</v>
+        <v>126300</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4581100</v>
+        <v>4483100</v>
       </c>
       <c r="E33" s="3">
-        <v>4751600</v>
+        <v>4650000</v>
       </c>
       <c r="F33" s="3">
-        <v>4086300</v>
+        <v>3998900</v>
       </c>
       <c r="G33" s="3">
-        <v>3437800</v>
+        <v>3364300</v>
       </c>
       <c r="H33" s="3">
-        <v>3680100</v>
+        <v>3601400</v>
       </c>
       <c r="I33" s="3">
-        <v>3730600</v>
+        <v>3650900</v>
       </c>
       <c r="J33" s="3">
-        <v>3144900</v>
+        <v>3077700</v>
       </c>
       <c r="K33" s="3">
         <v>4032000</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1503,42 +1468,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4581100</v>
+        <v>4483100</v>
       </c>
       <c r="E35" s="3">
-        <v>4751600</v>
+        <v>4650000</v>
       </c>
       <c r="F35" s="3">
-        <v>4086300</v>
+        <v>3998900</v>
       </c>
       <c r="G35" s="3">
-        <v>3437800</v>
+        <v>3364300</v>
       </c>
       <c r="H35" s="3">
-        <v>3680100</v>
+        <v>3601400</v>
       </c>
       <c r="I35" s="3">
-        <v>3730600</v>
+        <v>3650900</v>
       </c>
       <c r="J35" s="3">
-        <v>3144900</v>
+        <v>3077700</v>
       </c>
       <c r="K35" s="3">
         <v>4032000</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1596,97 +1561,97 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3274000</v>
+        <v>18509000</v>
       </c>
       <c r="E41" s="3">
-        <v>7370400</v>
+        <v>8808200</v>
       </c>
       <c r="F41" s="3">
-        <v>4153600</v>
+        <v>4064800</v>
       </c>
       <c r="G41" s="3">
-        <v>3827100</v>
+        <v>3745300</v>
       </c>
       <c r="H41" s="3">
-        <v>3734000</v>
+        <v>3654100</v>
       </c>
       <c r="I41" s="3">
-        <v>3083200</v>
+        <v>3017300</v>
       </c>
       <c r="J41" s="3">
-        <v>2779200</v>
+        <v>2719700</v>
       </c>
       <c r="K41" s="3">
         <v>5828000</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6771200</v>
+        <v>1285800</v>
       </c>
       <c r="E42" s="3">
-        <v>3729500</v>
+        <v>2054400</v>
       </c>
       <c r="F42" s="3">
-        <v>219900</v>
+        <v>215200</v>
       </c>
       <c r="G42" s="3">
-        <v>30300</v>
+        <v>29600</v>
       </c>
       <c r="H42" s="3">
-        <v>852700</v>
+        <v>834500</v>
       </c>
       <c r="I42" s="3">
-        <v>42600</v>
+        <v>41700</v>
       </c>
       <c r="J42" s="3">
-        <v>72900</v>
+        <v>71400</v>
       </c>
       <c r="K42" s="3">
         <v>785300</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7718200</v>
+        <v>7553100</v>
       </c>
       <c r="E43" s="3">
-        <v>20397800</v>
+        <v>13484500</v>
       </c>
       <c r="F43" s="3">
-        <v>7981800</v>
+        <v>7811200</v>
       </c>
       <c r="G43" s="3">
-        <v>6527700</v>
+        <v>6388200</v>
       </c>
       <c r="H43" s="3">
-        <v>5563900</v>
+        <v>5445000</v>
       </c>
       <c r="I43" s="3">
-        <v>4683200</v>
+        <v>4583100</v>
       </c>
       <c r="J43" s="3">
-        <v>4612500</v>
+        <v>4513900</v>
       </c>
       <c r="K43" s="3">
         <v>4100100</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1709,164 +1674,164 @@
         <v>24</v>
       </c>
       <c r="J44" s="3">
-        <v>66200</v>
+        <v>64800</v>
       </c>
       <c r="K44" s="3">
         <v>12900</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>884100</v>
+        <v>1841300</v>
       </c>
       <c r="E45" s="3">
-        <v>1776100</v>
+        <v>1738100</v>
       </c>
       <c r="F45" s="3">
-        <v>619300</v>
+        <v>606100</v>
       </c>
       <c r="G45" s="3">
-        <v>541900</v>
+        <v>530300</v>
       </c>
       <c r="H45" s="3">
-        <v>2040900</v>
+        <v>1997300</v>
       </c>
       <c r="I45" s="3">
-        <v>445400</v>
+        <v>435900</v>
       </c>
       <c r="J45" s="3">
-        <v>565500</v>
+        <v>553400</v>
       </c>
       <c r="K45" s="3">
         <v>623300</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18647500</v>
+        <v>18248800</v>
       </c>
       <c r="E46" s="3">
-        <v>13385300</v>
+        <v>13099100</v>
       </c>
       <c r="F46" s="3">
-        <v>12974700</v>
+        <v>12697300</v>
       </c>
       <c r="G46" s="3">
-        <v>10927100</v>
+        <v>10693400</v>
       </c>
       <c r="H46" s="3">
-        <v>10096800</v>
+        <v>9880900</v>
       </c>
       <c r="I46" s="3">
-        <v>8247700</v>
+        <v>8071400</v>
       </c>
       <c r="J46" s="3">
-        <v>7773100</v>
+        <v>7606900</v>
       </c>
       <c r="K46" s="3">
         <v>11349600</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2411200</v>
+        <v>4175700</v>
       </c>
       <c r="E47" s="3">
-        <v>3617300</v>
+        <v>3540000</v>
       </c>
       <c r="F47" s="3">
-        <v>2055500</v>
+        <v>2011500</v>
       </c>
       <c r="G47" s="3">
-        <v>1740200</v>
+        <v>1703000</v>
       </c>
       <c r="H47" s="3">
-        <v>2932900</v>
+        <v>2870200</v>
       </c>
       <c r="I47" s="3">
-        <v>1608900</v>
+        <v>1574500</v>
       </c>
       <c r="J47" s="3">
-        <v>1620200</v>
+        <v>1585500</v>
       </c>
       <c r="K47" s="3">
         <v>909700</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3986400</v>
+        <v>7802400</v>
       </c>
       <c r="E48" s="3">
-        <v>6657900</v>
+        <v>6515500</v>
       </c>
       <c r="F48" s="3">
-        <v>2894700</v>
+        <v>2832800</v>
       </c>
       <c r="G48" s="3">
-        <v>2459400</v>
+        <v>2406800</v>
       </c>
       <c r="H48" s="3">
-        <v>4716800</v>
+        <v>4616000</v>
       </c>
       <c r="I48" s="3">
-        <v>4084000</v>
+        <v>3996700</v>
       </c>
       <c r="J48" s="3">
-        <v>341100</v>
+        <v>333800</v>
       </c>
       <c r="K48" s="3">
         <v>1820600</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>30239900</v>
+        <v>59198700</v>
       </c>
       <c r="E49" s="3">
-        <v>54385100</v>
+        <v>53222300</v>
       </c>
       <c r="F49" s="3">
-        <v>30402600</v>
+        <v>29752500</v>
       </c>
       <c r="G49" s="3">
-        <v>30258900</v>
+        <v>29612000</v>
       </c>
       <c r="H49" s="3">
-        <v>81031200</v>
+        <v>79298700</v>
       </c>
       <c r="I49" s="3">
-        <v>18674400</v>
+        <v>18275100</v>
       </c>
       <c r="J49" s="3">
-        <v>30932100</v>
+        <v>30270800</v>
       </c>
       <c r="K49" s="3">
         <v>12600900</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1896,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1926,37 +1891,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2487500</v>
+        <v>3861700</v>
       </c>
       <c r="E52" s="3">
-        <v>3156200</v>
+        <v>3088700</v>
       </c>
       <c r="F52" s="3">
-        <v>1350900</v>
+        <v>1322000</v>
       </c>
       <c r="G52" s="3">
-        <v>1053500</v>
+        <v>1031000</v>
       </c>
       <c r="H52" s="3">
-        <v>746100</v>
+        <v>730200</v>
       </c>
       <c r="I52" s="3">
-        <v>462300</v>
+        <v>452400</v>
       </c>
       <c r="J52" s="3">
-        <v>656400</v>
+        <v>642300</v>
       </c>
       <c r="K52" s="3">
         <v>583400</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1986,37 +1951,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>57772400</v>
+        <v>56549200</v>
       </c>
       <c r="E54" s="3">
-        <v>47666600</v>
+        <v>46647400</v>
       </c>
       <c r="F54" s="3">
-        <v>49678400</v>
+        <v>48616100</v>
       </c>
       <c r="G54" s="3">
-        <v>46439200</v>
+        <v>45446200</v>
       </c>
       <c r="H54" s="3">
-        <v>43269500</v>
+        <v>42344400</v>
       </c>
       <c r="I54" s="3">
-        <v>30395800</v>
+        <v>29745900</v>
       </c>
       <c r="J54" s="3">
-        <v>29515100</v>
+        <v>28884000</v>
       </c>
       <c r="K54" s="3">
         <v>27264100</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2030,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2044,187 +2009,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1667300</v>
+        <v>1637100</v>
       </c>
       <c r="E57" s="3">
-        <v>2359500</v>
+        <v>2309100</v>
       </c>
       <c r="F57" s="3">
-        <v>1139900</v>
+        <v>1115600</v>
       </c>
       <c r="G57" s="3">
-        <v>1001900</v>
+        <v>980500</v>
       </c>
       <c r="H57" s="3">
-        <v>2038700</v>
+        <v>1995100</v>
       </c>
       <c r="I57" s="3">
-        <v>1436100</v>
+        <v>1405400</v>
       </c>
       <c r="J57" s="3">
-        <v>1534900</v>
+        <v>1502100</v>
       </c>
       <c r="K57" s="3">
         <v>853400</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>861700</v>
+        <v>2078500</v>
       </c>
       <c r="E58" s="3">
-        <v>3207800</v>
+        <v>3139200</v>
       </c>
       <c r="F58" s="3">
-        <v>1604400</v>
+        <v>1570100</v>
       </c>
       <c r="G58" s="3">
-        <v>636200</v>
+        <v>622600</v>
       </c>
       <c r="H58" s="3">
-        <v>2874500</v>
+        <v>2813100</v>
       </c>
       <c r="I58" s="3">
-        <v>1678500</v>
+        <v>1642600</v>
       </c>
       <c r="J58" s="3">
-        <v>1799700</v>
+        <v>1761200</v>
       </c>
       <c r="K58" s="3">
         <v>1562300</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9230600</v>
+        <v>13557000</v>
       </c>
       <c r="E59" s="3">
-        <v>16759200</v>
+        <v>16400800</v>
       </c>
       <c r="F59" s="3">
-        <v>8109700</v>
+        <v>7936300</v>
       </c>
       <c r="G59" s="3">
-        <v>7188600</v>
+        <v>7034900</v>
       </c>
       <c r="H59" s="3">
-        <v>12135400</v>
+        <v>11876000</v>
       </c>
       <c r="I59" s="3">
-        <v>5814200</v>
+        <v>5689800</v>
       </c>
       <c r="J59" s="3">
-        <v>8647200</v>
+        <v>8462300</v>
       </c>
       <c r="K59" s="3">
         <v>4939400</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11759600</v>
+        <v>11513600</v>
       </c>
       <c r="E60" s="3">
-        <v>11455500</v>
+        <v>11210600</v>
       </c>
       <c r="F60" s="3">
-        <v>10854100</v>
+        <v>10622100</v>
       </c>
       <c r="G60" s="3">
-        <v>8826700</v>
+        <v>8638000</v>
       </c>
       <c r="H60" s="3">
-        <v>9619900</v>
+        <v>9414300</v>
       </c>
       <c r="I60" s="3">
-        <v>7121300</v>
+        <v>6969000</v>
       </c>
       <c r="J60" s="3">
-        <v>7344500</v>
+        <v>7187500</v>
       </c>
       <c r="K60" s="3">
         <v>7355100</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11820200</v>
+        <v>11587200</v>
       </c>
       <c r="E61" s="3">
-        <v>5612200</v>
+        <v>5492200</v>
       </c>
       <c r="F61" s="3">
-        <v>7235700</v>
+        <v>7081000</v>
       </c>
       <c r="G61" s="3">
-        <v>9681700</v>
+        <v>9474600</v>
       </c>
       <c r="H61" s="3">
-        <v>10020500</v>
+        <v>9806200</v>
       </c>
       <c r="I61" s="3">
-        <v>4216400</v>
+        <v>4126300</v>
       </c>
       <c r="J61" s="3">
-        <v>4988400</v>
+        <v>4881700</v>
       </c>
       <c r="K61" s="3">
         <v>1873400</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1792900</v>
+        <v>2057700</v>
       </c>
       <c r="E62" s="3">
-        <v>2754500</v>
+        <v>2695600</v>
       </c>
       <c r="F62" s="3">
-        <v>1971300</v>
+        <v>1929200</v>
       </c>
       <c r="G62" s="3">
-        <v>1794100</v>
+        <v>1755700</v>
       </c>
       <c r="H62" s="3">
-        <v>2828500</v>
+        <v>2768100</v>
       </c>
       <c r="I62" s="3">
-        <v>1102900</v>
+        <v>1079300</v>
       </c>
       <c r="J62" s="3">
-        <v>3746300</v>
+        <v>3666200</v>
       </c>
       <c r="K62" s="3">
         <v>3120000</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2254,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2284,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2314,37 +2279,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25423200</v>
+        <v>24891700</v>
       </c>
       <c r="E66" s="3">
-        <v>19073800</v>
+        <v>18666000</v>
       </c>
       <c r="F66" s="3">
-        <v>20084700</v>
+        <v>19655300</v>
       </c>
       <c r="G66" s="3">
-        <v>20333800</v>
+        <v>19899100</v>
       </c>
       <c r="H66" s="3">
-        <v>21390700</v>
+        <v>20933400</v>
       </c>
       <c r="I66" s="3">
-        <v>12399100</v>
+        <v>12134000</v>
       </c>
       <c r="J66" s="3">
-        <v>13667000</v>
+        <v>13374700</v>
       </c>
       <c r="K66" s="3">
         <v>12357900</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2358,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2388,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2418,7 +2383,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2448,7 +2413,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2478,37 +2443,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>30750400</v>
+        <v>31447800</v>
       </c>
       <c r="E72" s="3">
-        <v>28360500</v>
+        <v>27754100</v>
       </c>
       <c r="F72" s="3">
-        <v>25022600</v>
+        <v>24487600</v>
       </c>
       <c r="G72" s="3">
-        <v>22489200</v>
+        <v>22008300</v>
       </c>
       <c r="H72" s="3">
-        <v>20551500</v>
+        <v>20112100</v>
       </c>
       <c r="I72" s="3">
-        <v>18241300</v>
+        <v>17851300</v>
       </c>
       <c r="J72" s="3">
-        <v>15633800</v>
+        <v>15299500</v>
       </c>
       <c r="K72" s="3">
         <v>14632700</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2568,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2598,37 +2563,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32349200</v>
+        <v>31657500</v>
       </c>
       <c r="E76" s="3">
-        <v>28592800</v>
+        <v>27981400</v>
       </c>
       <c r="F76" s="3">
-        <v>29593600</v>
+        <v>28960800</v>
       </c>
       <c r="G76" s="3">
-        <v>26105300</v>
+        <v>25547200</v>
       </c>
       <c r="H76" s="3">
-        <v>21878800</v>
+        <v>21411000</v>
       </c>
       <c r="I76" s="3">
-        <v>17996700</v>
+        <v>17611900</v>
       </c>
       <c r="J76" s="3">
-        <v>15848100</v>
+        <v>15509300</v>
       </c>
       <c r="K76" s="3">
         <v>14906200</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2658,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2693,37 +2658,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4581100</v>
+        <v>4483100</v>
       </c>
       <c r="E81" s="3">
-        <v>4751600</v>
+        <v>4650000</v>
       </c>
       <c r="F81" s="3">
-        <v>4086300</v>
+        <v>3998900</v>
       </c>
       <c r="G81" s="3">
-        <v>3437800</v>
+        <v>3364300</v>
       </c>
       <c r="H81" s="3">
-        <v>3680100</v>
+        <v>3601400</v>
       </c>
       <c r="I81" s="3">
-        <v>3730600</v>
+        <v>3650900</v>
       </c>
       <c r="J81" s="3">
-        <v>3144900</v>
+        <v>3077700</v>
       </c>
       <c r="K81" s="3">
         <v>4032000</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2737,37 +2702,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1528200</v>
+        <v>1495500</v>
       </c>
       <c r="E83" s="3">
-        <v>1427200</v>
+        <v>1396700</v>
       </c>
       <c r="F83" s="3">
-        <v>1422700</v>
+        <v>1392300</v>
       </c>
       <c r="G83" s="3">
-        <v>1446200</v>
+        <v>1415300</v>
       </c>
       <c r="H83" s="3">
-        <v>1133200</v>
+        <v>1109000</v>
       </c>
       <c r="I83" s="3">
-        <v>1067000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>968300</v>
+        <v>1044200</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K83" s="3">
         <v>849800</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2797,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2827,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2857,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2887,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2917,37 +2882,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4827900</v>
+        <v>4724700</v>
       </c>
       <c r="E89" s="3">
-        <v>5660400</v>
+        <v>5539400</v>
       </c>
       <c r="F89" s="3">
-        <v>5192600</v>
+        <v>5081500</v>
       </c>
       <c r="G89" s="3">
-        <v>4081800</v>
+        <v>3994500</v>
       </c>
       <c r="H89" s="3">
-        <v>3925800</v>
+        <v>3841900</v>
       </c>
       <c r="I89" s="3">
-        <v>4299500</v>
+        <v>4207500</v>
       </c>
       <c r="J89" s="3">
-        <v>4288200</v>
+        <v>4196600</v>
       </c>
       <c r="K89" s="3">
         <v>4431100</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2961,37 +2926,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1635900</v>
+        <v>-1600900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1430500</v>
+        <v>-1400000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1123100</v>
+        <v>-1099100</v>
       </c>
       <c r="G91" s="3">
-        <v>-713600</v>
+        <v>-698300</v>
       </c>
       <c r="H91" s="3">
-        <v>-826900</v>
+        <v>-809200</v>
       </c>
       <c r="I91" s="3">
-        <v>-635000</v>
+        <v>-621500</v>
       </c>
       <c r="J91" s="3">
-        <v>-607000</v>
+        <v>-594000</v>
       </c>
       <c r="K91" s="3">
         <v>-522300</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3021,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3051,37 +3016,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3440000</v>
+        <v>-3366500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1247700</v>
+        <v>-1221000</v>
       </c>
       <c r="F94" s="3">
-        <v>-2018500</v>
+        <v>-1975300</v>
       </c>
       <c r="G94" s="3">
-        <v>-374700</v>
+        <v>-366700</v>
       </c>
       <c r="H94" s="3">
-        <v>-8123200</v>
+        <v>-7949500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1998300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-6691500</v>
+        <v>-1955500</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K94" s="3">
         <v>-1439100</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3095,37 +3060,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1874800</v>
+        <v>-1834800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1681900</v>
+        <v>-1645900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1546100</v>
+        <v>-1513000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1476500</v>
+        <v>-1445000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1339700</v>
+        <v>-1311000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1136600</v>
+        <v>-1112300</v>
       </c>
       <c r="J96" s="3">
-        <v>-1469800</v>
+        <v>-1438400</v>
       </c>
       <c r="K96" s="3">
         <v>-836900</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3155,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3185,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3215,90 +3180,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3683500</v>
+        <v>3604700</v>
       </c>
       <c r="E100" s="3">
-        <v>-3821500</v>
+        <v>-3739800</v>
       </c>
       <c r="F100" s="3">
-        <v>-3035000</v>
+        <v>-2970100</v>
       </c>
       <c r="G100" s="3">
-        <v>-3765400</v>
+        <v>-3684900</v>
       </c>
       <c r="H100" s="3">
-        <v>4822300</v>
+        <v>4719200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1782800</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-217700</v>
+        <v>-1744700</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K100" s="3">
         <v>-1380400</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>108800</v>
+        <v>106500</v>
       </c>
       <c r="E101" s="3">
-        <v>-244600</v>
+        <v>-239400</v>
       </c>
       <c r="F101" s="3">
-        <v>187400</v>
+        <v>183400</v>
       </c>
       <c r="G101" s="3">
-        <v>151500</v>
+        <v>148200</v>
       </c>
       <c r="H101" s="3">
-        <v>25800</v>
+        <v>25300</v>
       </c>
       <c r="I101" s="3">
-        <v>-214300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-170500</v>
+        <v>-209700</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K101" s="3">
         <v>86900</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5180200</v>
+        <v>5069500</v>
       </c>
       <c r="E102" s="3">
-        <v>346700</v>
+        <v>339300</v>
       </c>
       <c r="F102" s="3">
-        <v>326500</v>
+        <v>319500</v>
       </c>
       <c r="G102" s="3">
-        <v>93100</v>
+        <v>91100</v>
       </c>
       <c r="H102" s="3">
-        <v>650800</v>
+        <v>636800</v>
       </c>
       <c r="I102" s="3">
-        <v>304100</v>
+        <v>297600</v>
       </c>
       <c r="J102" s="3">
-        <v>-2791500</v>
+        <v>-2731800</v>
       </c>
       <c r="K102" s="3">
         <v>1698500</v>
